--- a/Modelo DB bicirio.xlsx
+++ b/Modelo DB bicirio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trabajo\Somos Movilidad\bicirio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC851AC9-6416-429C-A377-266E123017F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F913CC-ECB2-4189-8C3B-0C4041AEA892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D12F0DD0-82F7-4372-9C9A-962D59EC70E5}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="118">
   <si>
     <t>GASOLINA</t>
   </si>
@@ -1703,7 +1703,7 @@
   <dimension ref="A1:R50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1806,9 +1806,7 @@
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
-      <c r="B5" s="24" t="s">
-        <v>43</v>
-      </c>
+      <c r="B5" s="24"/>
       <c r="C5" s="4"/>
       <c r="D5" s="23" t="s">
         <v>43</v>

--- a/Modelo DB bicirio.xlsx
+++ b/Modelo DB bicirio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trabajo\Somos Movilidad\bicirio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F913CC-ECB2-4189-8C3B-0C4041AEA892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C23F670-F08C-4E18-A7FF-0FAD36DE34C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D12F0DD0-82F7-4372-9C9A-962D59EC70E5}"/>
   </bookViews>
@@ -1703,7 +1703,7 @@
   <dimension ref="A1:R50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modelo DB bicirio.xlsx
+++ b/Modelo DB bicirio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trabajo\Somos Movilidad\bicirio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C23F670-F08C-4E18-A7FF-0FAD36DE34C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C567573-70DC-4DDA-AE37-257DB8237C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D12F0DD0-82F7-4372-9C9A-962D59EC70E5}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="151">
   <si>
     <t>GASOLINA</t>
   </si>
@@ -322,42 +322,15 @@
     <t>activo</t>
   </si>
   <si>
-    <t>Estacion</t>
-  </si>
-  <si>
-    <t>Nombre_Estacion</t>
-  </si>
-  <si>
-    <t>Longitud</t>
-  </si>
-  <si>
-    <t>Latitud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripcion </t>
-  </si>
-  <si>
     <t>Tecnico</t>
   </si>
   <si>
-    <t xml:space="preserve">Supervisor </t>
-  </si>
-  <si>
-    <t>Estacion(es)</t>
-  </si>
-  <si>
-    <t>Tipo_Estacion</t>
-  </si>
-  <si>
     <t>Tipo_logeo</t>
   </si>
   <si>
     <t>Tipo_operacion</t>
   </si>
   <si>
-    <t>Hora_Receso</t>
-  </si>
-  <si>
     <t>user</t>
   </si>
   <si>
@@ -376,10 +349,136 @@
     <t>out_hour</t>
   </si>
   <si>
-    <t>shedule</t>
-  </si>
-  <si>
     <t>station</t>
+  </si>
+  <si>
+    <t>Supervisor</t>
+  </si>
+  <si>
+    <t>online (boolean)</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>name1</t>
+  </si>
+  <si>
+    <t>name2</t>
+  </si>
+  <si>
+    <t>surname1</t>
+  </si>
+  <si>
+    <t>surname2</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>userID</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>ScheduleID</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>stationID</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>users_stations</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>serviceID</t>
+  </si>
+  <si>
+    <t>img1</t>
+  </si>
+  <si>
+    <t>img2</t>
+  </si>
+  <si>
+    <t>img3</t>
+  </si>
+  <si>
+    <t>img4</t>
+  </si>
+  <si>
+    <t>img5</t>
+  </si>
+  <si>
+    <t>img6</t>
+  </si>
+  <si>
+    <t>img7</t>
+  </si>
+  <si>
+    <t>img8</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>assign_in_time</t>
+  </si>
+  <si>
+    <t>assign_out_time</t>
+  </si>
+  <si>
+    <t>break_time</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>init_latiutude</t>
+  </si>
+  <si>
+    <t>init_longitude</t>
+  </si>
+  <si>
+    <t>last_latitude</t>
+  </si>
+  <si>
+    <t>last_longitude</t>
+  </si>
+  <si>
+    <t>init_timestamp</t>
+  </si>
+  <si>
+    <t>last_timestamp</t>
+  </si>
+  <si>
+    <t>locationID</t>
+  </si>
+  <si>
+    <t>station_category</t>
   </si>
 </sst>
 </file>
@@ -417,7 +516,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,6 +574,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,7 +752,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -761,6 +884,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -782,114 +944,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>76637</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>142327</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>558365</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>120431</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Conector: angular 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D476B79-D4B1-412E-96F1-2C11C252BEC7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="10658912" y="1142452"/>
-          <a:ext cx="1558053" cy="768679"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>667845</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>87588</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Conector: angular 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F763630-A43F-49ED-85EC-530D74CC92BB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="7562290" y="527238"/>
-          <a:ext cx="1711673" cy="1364497"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -1703,7 +1757,7 @@
   <dimension ref="A1:R50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="T12" sqref="T12:T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1713,14 +1767,15 @@
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="7" max="7" width="4" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="13" max="14" width="5" customWidth="1"/>
+    <col min="15" max="15" width="4" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1730,8 +1785,8 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="2" t="s">
-        <v>110</v>
+      <c r="F2" s="45" t="s">
+        <v>101</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -1748,20 +1803,22 @@
     </row>
     <row r="3" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="12" t="s">
-        <v>116</v>
+      <c r="B3" s="49" t="s">
+        <v>119</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="12" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="51" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="I3" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -1769,7 +1826,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="13" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
@@ -1785,11 +1842,13 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="5" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="I4" s="5" t="s">
+        <v>128</v>
+      </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -1797,7 +1856,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q4" s="4">
         <v>0</v>
@@ -1806,28 +1865,32 @@
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
-      <c r="B5" s="24"/>
+      <c r="B5" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="23" t="s">
-        <v>43</v>
+      <c r="D5" s="19" t="s">
+        <v>116</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="5" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="I5" s="19" t="s">
+        <v>116</v>
+      </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="6" t="s">
-        <v>117</v>
+      <c r="L5" s="46" t="s">
+        <v>107</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
-      <c r="P5" s="25" t="s">
-        <v>19</v>
+      <c r="P5" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="Q5" s="4">
         <v>1</v>
@@ -1837,19 +1900,21 @@
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="3" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="5" t="s">
-        <v>33</v>
+      <c r="F6" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="I6" s="47" t="s">
+        <v>120</v>
+      </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="18" t="s">
@@ -1858,42 +1923,39 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="P6" s="7" t="s">
-        <v>20</v>
+      <c r="P6" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="Q6" s="4">
         <v>2</v>
       </c>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="7" t="s">
-        <v>57</v>
+      <c r="D7" s="50" t="s">
+        <v>118</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="8" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="44" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
-      <c r="P7" s="7" t="s">
-        <v>103</v>
+      <c r="P7" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="Q7" s="4">
         <v>3</v>
@@ -1903,29 +1965,26 @@
     <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="3" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="8" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="33" t="s">
-        <v>21</v>
-      </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="44" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="7" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="4">
         <v>4</v>
@@ -1934,87 +1993,78 @@
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
-        <v>56</v>
+      <c r="B9" s="19" t="s">
+        <v>116</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="8" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="32" t="s">
-        <v>43</v>
-      </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="44" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="26" t="s">
         <v>60</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="12" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="8" t="s">
-        <v>75</v>
+      <c r="F10" s="50" t="s">
+        <v>118</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="34" t="s">
-        <v>98</v>
-      </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="10" t="s">
-        <v>50</v>
+      <c r="L10" s="57" t="s">
+        <v>150</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="13" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="17" t="s">
-        <v>105</v>
+      <c r="F11" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="35" t="s">
-        <v>52</v>
-      </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="44" t="s">
-        <v>106</v>
+      <c r="L11" s="52" t="s">
+        <v>124</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="Q11" s="4">
         <v>0</v>
@@ -2024,15 +2074,17 @@
     <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="23" t="s">
-        <v>43</v>
+      <c r="D12" s="19" t="s">
+        <v>116</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="17"/>
+      <c r="F12" s="10" t="s">
+        <v>124</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="36" t="s">
-        <v>60</v>
+      <c r="I12" s="53" t="s">
+        <v>102</v>
       </c>
       <c r="J12" s="4"/>
       <c r="L12" s="4"/>
@@ -2040,7 +2092,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="4">
         <v>1</v>
@@ -2051,16 +2103,13 @@
       <c r="A13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="37" t="s">
-        <v>62</v>
+      <c r="I13" s="54" t="s">
+        <v>21</v>
       </c>
       <c r="J13" s="4"/>
       <c r="L13" s="4"/>
@@ -2072,17 +2121,14 @@
     <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="7" t="s">
-        <v>58</v>
+      <c r="D14" s="50" t="s">
+        <v>118</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="10" t="s">
-        <v>50</v>
-      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="37" t="s">
-        <v>63</v>
+      <c r="I14" s="34" t="s">
+        <v>116</v>
       </c>
       <c r="J14" s="4"/>
       <c r="L14" s="4"/>
@@ -2090,7 +2136,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="10" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
@@ -2100,21 +2146,23 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="F15" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="17" t="s">
-        <v>66</v>
+      <c r="I15" s="48" t="s">
+        <v>120</v>
       </c>
       <c r="J15" s="4"/>
-      <c r="L15" s="12" t="s">
-        <v>113</v>
+      <c r="L15" s="55" t="s">
+        <v>104</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="7" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="Q15" s="4">
         <v>0</v>
@@ -2126,20 +2174,23 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
+      <c r="F16" s="51" t="s">
+        <v>21</v>
+      </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="39" t="s">
-        <v>67</v>
+      <c r="I16" s="35" t="s">
+        <v>142</v>
       </c>
       <c r="J16" s="4"/>
-      <c r="L16" s="9" t="s">
-        <v>29</v>
+      <c r="L16" s="22" t="s">
+        <v>129</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="7" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="Q16" s="4">
         <v>1</v>
@@ -2152,10 +2203,13 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
+      <c r="F17" s="23" t="s">
+        <v>129</v>
+      </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="40" t="s">
-        <v>64</v>
+      <c r="I17" s="36" t="s">
+        <v>60</v>
       </c>
       <c r="J17" s="4"/>
       <c r="L17" s="17" t="s">
@@ -2174,10 +2228,13 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
+      <c r="F18" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="7" t="s">
-        <v>65</v>
+      <c r="I18" s="56" t="s">
+        <v>149</v>
       </c>
       <c r="J18" s="4"/>
       <c r="L18" s="17" t="s">
@@ -2187,7 +2244,7 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="10" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
@@ -2198,15 +2255,17 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="12" t="s">
-        <v>112</v>
+      <c r="F19" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="I19" s="37" t="s">
+        <v>143</v>
+      </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="23" t="s">
+      <c r="L19" s="19" t="s">
         <v>43</v>
       </c>
       <c r="M19" s="4"/>
@@ -2226,12 +2285,14 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="31" t="s">
-        <v>21</v>
+      <c r="F20" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="I20" s="37" t="s">
+        <v>144</v>
+      </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="7" t="s">
@@ -2254,12 +2315,14 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="16" t="s">
-        <v>51</v>
+      <c r="F21" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="I21" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -2281,11 +2344,13 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="5" t="s">
-        <v>36</v>
+        <v>133</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="I22" s="39" t="s">
+        <v>146</v>
+      </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
@@ -2305,11 +2370,13 @@
       <c r="B23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="5" t="s">
-        <v>5</v>
+        <v>134</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="I23" s="40" t="s">
+        <v>147</v>
+      </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
@@ -2318,16 +2385,18 @@
       <c r="O23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="5" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="I24" s="7" t="s">
+        <v>148</v>
+      </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
@@ -2341,7 +2410,7 @@
       <c r="B25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="5" t="s">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -2359,7 +2428,7 @@
       <c r="B26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="5" t="s">
-        <v>8</v>
+        <v>137</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -2374,14 +2443,14 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="5" t="s">
-        <v>68</v>
+      <c r="F27" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -2402,9 +2471,6 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -2424,9 +2490,6 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -2446,9 +2509,6 @@
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -2468,9 +2528,6 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -2484,13 +2541,12 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="7"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -2766,6 +2822,7 @@
       <c r="I50" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Modelo DB bicirio.xlsx
+++ b/Modelo DB bicirio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trabajo\Somos Movilidad\bicirio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C567573-70DC-4DDA-AE37-257DB8237C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C469CF-3E20-40AF-8C1D-14A1D89158A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D12F0DD0-82F7-4372-9C9A-962D59EC70E5}"/>
   </bookViews>
@@ -922,7 +922,7 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1757,7 +1757,7 @@
   <dimension ref="A1:R50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12:T13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
